--- a/customer_segments/analysis.xlsx
+++ b/customer_segments/analysis.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\MachineLearnResearch\customer_segments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delab\Documents\GitHub\MachineLearnResearch\customer_segments\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F167553-A0EB-4BA2-8B83-CDB5FC0660C7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{05067EFF-74D2-4E08-928D-725CCDB33EAF}"/>
   </bookViews>
@@ -15,30 +16,6 @@
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$13:$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$13:$G$25</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$8:$B$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$8:$C$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$8:$D$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$E$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$E$8:$E$20</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$F$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$8:$F$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$13:$C$25</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$G$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$G$8:$G$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$13:$D$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$13:$E$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$13:$F$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$12</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Fresh</t>
   </si>
@@ -85,6 +62,12 @@
   </si>
   <si>
     <t>348 index</t>
+  </si>
+  <si>
+    <t>Segment 0</t>
+  </si>
+  <si>
+    <t>Segment 1</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Question 1</a:t>
+              <a:t>Question 8</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1135,7 +1118,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1279,7 +1264,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1423,7 +1410,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1691,6 +1680,242 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-6881-46BC-ACD5-B1C1B314B8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Segment 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E11-431B-9DAC-128CADA8F197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Segment 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E11-431B-9DAC-128CADA8F197}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1894,7 +2119,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3057,16 +3281,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303394</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>443227</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64176</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3092,284 +3316,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1C1D08-4CF2-4AB6-8C27-64E6F584CABD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="9410700" cy="4800600"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>1.21431E-17</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="5" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AADDFE6-6A39-45D7-BB63-F1A58BD9677E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="8648700" cy="4838699"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>1.21431E-17</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="6" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AADDFE6-6A39-45D7-BB63-F1A58BD9677E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="8648700" cy="4838699"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>1.21431E-17</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="7" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AADDFE6-6A39-45D7-BB63-F1A58BD9677E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="8648700" cy="4838699"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="9" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67621C1A-22B5-4B3A-BD24-731F4EAE53EC}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="9667874" cy="5915025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="10" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67621C1A-22B5-4B3A-BD24-731F4EAE53EC}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="9667874" cy="5915025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="11" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67621C1A-22B5-4B3A-BD24-731F4EAE53EC}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="9667874" cy="5915025"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3675,13 +3621,13 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="7" width="17.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="7" width="17.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3728,7 @@
         <v>16683</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:8" ht="14.65" thickBot="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3815,18 +3761,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7DA0E8-2BE9-4A8F-874D-86FFA044597E}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="7" width="17.140625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="17.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +3873,7 @@
         <v>7589</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:8" ht="14.65" thickBot="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3950,7 +3896,53 @@
         <v>1524.870455</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1"/>
+    <row r="6" spans="1:8" ht="14.65" thickBot="1">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3552</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7837</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12219</v>
+      </c>
+      <c r="E6" s="2">
+        <v>870</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4696</v>
+      </c>
+      <c r="G6" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.65" thickBot="1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8953</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2114</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2765</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2075</v>
+      </c>
+      <c r="F7" s="2">
+        <v>353</v>
+      </c>
+      <c r="G7" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
